--- a/output/2018-02-01 to 2018-03-01.xlsx
+++ b/output/2018-02-01 to 2018-03-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -107,7 +107,7 @@
     <t>['cfop_KWIAT']</t>
   </si>
   <si>
-    <t>['cfop_DULLERUD']</t>
+    <t>['cfop_DULLERUD_1', 'cfop_DULLERUD']</t>
   </si>
   <si>
     <t>['cfop_NH']</t>
@@ -137,6 +137,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-100-02</t>
   </si>
   <si>
@@ -164,6 +167,33 @@
     <t>2017-03-103-01</t>
   </si>
   <si>
+    <t>['Jiyang Chen']</t>
+  </si>
+  <si>
+    <t>['Alex Hill', 'Alexander Hill']</t>
+  </si>
+  <si>
+    <t>['Joao Porto']</t>
+  </si>
+  <si>
+    <t>['Arun Lakshmanan', 'Gabriel Barsi Haberfeld']</t>
+  </si>
+  <si>
+    <t>['Harshal Maske']</t>
+  </si>
+  <si>
+    <t>['Usman Syed']</t>
+  </si>
+  <si>
+    <t>['Karun Koppul']</t>
+  </si>
+  <si>
+    <t>['Dalton Chaffee']</t>
+  </si>
+  <si>
+    <t>['Daniel Olivas Hernandez']</t>
+  </si>
+  <si>
     <t>cfop_KWIAT</t>
   </si>
   <si>
@@ -174,6 +204,9 @@
   </si>
   <si>
     <t>cfop_DULLERUD</t>
+  </si>
+  <si>
+    <t>cfop_DULLERUD_1</t>
   </si>
   <si>
     <t>cfop_NH</t>
@@ -1004,6 +1037,186 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>27.5</v>
+      </c>
+      <c r="D2">
+        <v>26.19047619047619</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>16.19047619047619</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>16.19047619047619</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>15.23809523809524</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3.809523809523809</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1012,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1026,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>27.5</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>26.19047619047619</v>
+        <v>25.23076923076923</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1040,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>27.5</v>
       </c>
       <c r="D3">
-        <v>16.19047619047619</v>
+        <v>16.92307692307692</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1054,13 +1267,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>16.19047619047619</v>
+        <v>13.53846153846154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1068,13 +1281,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>15.23809523809524</v>
+        <v>10.46153846153846</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1082,13 +1295,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>10.47619047619048</v>
+        <v>10.46153846153846</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1096,13 +1309,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>5.714285714285714</v>
+        <v>9.846153846153847</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1110,13 +1323,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>3.809523809523809</v>
+        <v>7.384615384615385</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1124,13 +1337,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>3.333333333333333</v>
+        <v>3.692307692307693</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1138,149 +1351,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>2.857142857142857</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>41</v>
-      </c>
-      <c r="D2">
-        <v>28.1786941580756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3">
-        <v>27.5</v>
-      </c>
-      <c r="D3">
-        <v>18.90034364261168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>15.12027491408935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>11.68384879725086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>10.99656357388316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>8.24742268041237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>4.123711340206185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>2.74914089347079</v>
+        <v>2.461538461538462</v>
       </c>
     </row>
   </sheetData>
